--- a/xlsx/宗教_intext.xlsx
+++ b/xlsx/宗教_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1174">
   <si>
     <t>宗教</t>
   </si>
@@ -29,13 +29,13 @@
     <t>自然</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_宗教</t>
+    <t>政策_政策_维基百科_宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%A5%9E%E8%AB%96</t>
   </si>
   <si>
-    <t>多神論</t>
+    <t>多神论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E7%A5%9E%E8%AE%BA</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%A5%9E%E8%AB%96</t>
   </si>
   <si>
-    <t>一神論</t>
+    <t>一神论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%A5%9E%E8%AE%BA</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%A7%80</t>
   </si>
   <si>
-    <t>價值觀</t>
+    <t>价值观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A7%82</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0</t>
   </si>
   <si>
-    <t>聖地</t>
+    <t>圣地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%B0</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E7%A6%8F%E5%BE%B7%C2%B7%E6%A0%BC%E7%88%BE%E8%8C%A8</t>
   </si>
   <si>
-    <t>克利福德·格爾茨</t>
+    <t>克利福德·格尔茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%AF%9D</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%AA%E6%96%87%E8%A7%A3%E5%AD%97</t>
   </si>
   <si>
-    <t>說文解字</t>
+    <t>说文解字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%A0%BC%E5%8C%96</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%B8%E5%AD%90%E7%99%BE%E5%AE%B6</t>
   </si>
   <si>
-    <t>諸子百家</t>
+    <t>诸子百家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%B6%93</t>
   </si>
   <si>
-    <t>佛經</t>
+    <t>佛经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E7%A7%91%E5%AD%A6</t>
@@ -203,37 +203,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教學</t>
+    <t>宗教学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>神學</t>
+    <t>神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
+    <t>古罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%9E%E7%BE%85</t>
   </si>
   <si>
-    <t>西塞羅</t>
+    <t>西塞罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8F%A4%E6%96%AF%E4%B8%81</t>
   </si>
   <si>
-    <t>奧古斯丁</t>
+    <t>奥古斯丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%AD%82</t>
   </si>
   <si>
-    <t>靈魂</t>
+    <t>灵魂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AF%E5%8F%8B%E5%85%B0</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會學家</t>
+    <t>社会学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6%E5%AE%B6</t>
@@ -257,19 +257,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8B%E6%B7%A8%E7%A9%BA</t>
   </si>
   <si>
-    <t>釋淨空</t>
+    <t>释净空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>神學家</t>
+    <t>神学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%86%E5%8B%92</t>
   </si>
   <si>
-    <t>繆勒</t>
+    <t>缪勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%8B%92</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E6%80%A7</t>
   </si>
   <si>
-    <t>靈性</t>
+    <t>灵性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E6%BE%A4</t>
   </si>
   <si>
-    <t>弗雷澤</t>
+    <t>弗雷泽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E5%AF%86%E7%89%B9</t>
@@ -299,13 +299,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%89%98</t>
   </si>
   <si>
-    <t>奧托</t>
+    <t>奥托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E8%90%8A%E7%88%BE%E9%A6%AC%E8%B5%AB</t>
   </si>
   <si>
-    <t>施萊爾馬赫</t>
+    <t>施莱尔马赫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E5%88%A9%E5%B8%8C</t>
@@ -317,19 +317,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%BE%A9</t>
   </si>
   <si>
-    <t>教義</t>
+    <t>教义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%84%80</t>
   </si>
   <si>
-    <t>教儀</t>
+    <t>教仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%9C%98</t>
   </si>
   <si>
-    <t>教團</t>
+    <t>教团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%AC%E7%95%8F</t>
@@ -359,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E7%89%A9%E6%9C%89%E9%9D%88%E8%AB%96</t>
   </si>
   <si>
-    <t>萬物有靈論</t>
+    <t>万物有灵论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%AB%E8%A1%93</t>
   </si>
   <si>
-    <t>巫術</t>
+    <t>巫术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E5%BF%8C</t>
@@ -377,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%88%E7%A6%B1</t>
   </si>
   <si>
-    <t>祈禱</t>
+    <t>祈祷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BA%8B</t>
   </si>
   <si>
-    <t>聖事</t>
+    <t>圣事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E8%A1%8C</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A1%93</t>
   </si>
   <si>
-    <t>法術</t>
+    <t>法术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%9D%88%E8%AB%96</t>
   </si>
   <si>
-    <t>泛靈論</t>
+    <t>泛灵论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E4%BC%AF%E5%86%85%E7%89%B9%C2%B7%E6%B3%B0%E5%8B%92</t>
@@ -473,27 +473,24 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學</t>
+    <t>科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%96%AF%C2%B7%E7%B9%86%E5%8B%92</t>
   </si>
   <si>
-    <t>馬克斯·繆勒</t>
+    <t>马克斯·缪勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AD%90%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>印歐語言</t>
+    <t>印欧语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>神話</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E7%B1%B3%E7%89%B9</t>
   </si>
   <si>
@@ -521,13 +518,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8B%9E%E5%BE%B7%C2%B7%E6%9D%8E%E7%B6%AD-%E5%8F%B2%E9%99%80</t>
   </si>
   <si>
-    <t>克勞德·李維-史陀</t>
+    <t>克劳德·李维-史陀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%89%B9%E8%98%AD%C2%B7%E7%BE%85%E7%B4%A0</t>
   </si>
   <si>
-    <t>伯特蘭·羅素</t>
+    <t>伯特兰·罗素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D</t>
@@ -539,13 +536,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8F%E8%BC%AF</t>
   </si>
   <si>
-    <t>邏輯</t>
+    <t>逻辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>量子力學</t>
+    <t>量子力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E6%B2%8C%E7%90%86%E8%AE%BA</t>
@@ -557,19 +554,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E9%BB%A8</t>
   </si>
   <si>
-    <t>法西斯黨</t>
+    <t>法西斯党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>恐怖主義</t>
+    <t>恐怖主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%AF%9F%C2%B7%E6%96%AF%E6%BA%AB%E4%BC%AF%E6%81%A9</t>
   </si>
   <si>
-    <t>理察·斯溫伯恩</t>
+    <t>理察·斯温伯恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99</t>
@@ -581,19 +578,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E5%8C%96%E8%AB%96</t>
   </si>
   <si>
-    <t>進化論</t>
+    <t>进化论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E7%94%B0%E7%AB%8B%E5%85%8B</t>
   </si>
   <si>
-    <t>保羅·田立克</t>
+    <t>保罗·田立克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E4%B8%96%E8%AB%96</t>
   </si>
   <si>
-    <t>創世論</t>
+    <t>创世论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E6%9E%9C</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E8%8C%B2%C2%B7%E5%B8%95%E6%96%AF%E5%8D%A1</t>
   </si>
   <si>
-    <t>布萊茲·帕斯卡</t>
+    <t>布莱兹·帕斯卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%A9%B9%E5%A7%86%E5%A3%AB</t>
@@ -617,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%8D%84</t>
   </si>
   <si>
-    <t>地獄</t>
+    <t>地狱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E6%9D%91</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E8%AB%96</t>
   </si>
   <si>
-    <t>多元論</t>
+    <t>多元论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%BE%92</t>
@@ -653,15 +650,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%8F%AF%E7%9F%A5%E8%AB%96</t>
   </si>
   <si>
-    <t>不可知論</t>
+    <t>不可知论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%A5%9E%E8%AB%96</t>
   </si>
   <si>
-    <t>無神論</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
@@ -713,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%82%E6%95%99%E5%BE%92</t>
@@ -761,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>藝術</t>
+    <t>艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BB%BA%E7%AD%91</t>
@@ -779,9 +773,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6</t>
   </si>
   <si>
-    <t>科学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%98%82%E5%93%88%E5%BE%B7%C2%B7%E6%AC%A7%E6%8B%89</t>
   </si>
   <si>
@@ -791,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8F%A4%E6%96%AF%E4%B8%81%C2%B7%E8%B7%AF%E6%98%93%C2%B7%E6%9F%AF%E8%A5%BF</t>
   </si>
   <si>
-    <t>奧古斯丁·路易·柯西</t>
+    <t>奥古斯丁·路易·柯西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E9%87%8C%E7%A7%91%C2%B7%E8%B4%B9%E7%B1%B3</t>
@@ -803,13 +794,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%8F%AF%E7%9F%A5%E8%AE%BA</t>
   </si>
   <si>
-    <t>不可知论</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%C2%B7%E8%B2%BB%E6%9B%BC</t>
   </si>
   <si>
-    <t>理查·費曼</t>
+    <t>理查·费曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%97%E5%A5%97%E9%80%BB%E8%BE%91</t>
@@ -839,13 +827,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%B8%96%E8%81%96%E5%85%AC%E5%AE%97</t>
   </si>
   <si>
-    <t>普世聖公宗</t>
+    <t>普世圣公宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%A3%E6%95%99</t>
   </si>
   <si>
-    <t>東正教</t>
+    <t>东正教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%99%AE%E7%89%B9%E6%95%99%E4%BC%9A</t>
@@ -857,37 +845,34 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>正教會</t>
+    <t>正教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%9C%E5%B0%BC%E6%B4%BE</t>
   </si>
   <si>
-    <t>遜尼派</t>
+    <t>逊尼派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%80%E8%91%89%E6%B4%BE</t>
   </si>
   <si>
-    <t>什葉派</t>
+    <t>什叶派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%82%B3%E4%BD%9B%E6%95%99</t>
   </si>
   <si>
-    <t>漢傳佛教</t>
+    <t>汉传佛教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%82%B3%E4%BD%9B%E6%95%99</t>
   </si>
   <si>
-    <t>南傳佛教</t>
+    <t>南传佛教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E4%BC%A0%E4%BD%9B%E6%95%99</t>
@@ -911,13 +896,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%85%8B%E6%95%99</t>
   </si>
   <si>
-    <t>錫克教</t>
+    <t>锡克教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>猶太教</t>
+    <t>犹太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%86%E9%82%A3%E6%95%99</t>
@@ -971,13 +956,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%9F%BA%E7%9D%A3%E5%BE%8C%E6%9C%9F%E8%81%96%E5%BE%92%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>耶穌基督後期聖徒教會</t>
+    <t>耶稣基督后期圣徒教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E5%92%8C%E8%8F%AF%E8%A6%8B%E8%AD%89%E4%BA%BA</t>
   </si>
   <si>
-    <t>耶和華見證人</t>
+    <t>耶和华见证人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E4%BC%8A</t>
@@ -1013,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AD%B8</t>
   </si>
   <si>
-    <t>儒學</t>
+    <t>儒学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
@@ -1031,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1049,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E6%B1%9D%E9%88%9E</t>
   </si>
   <si>
-    <t>吳汝鈞</t>
+    <t>吴汝钧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%8E%9F</t>
@@ -1061,9 +1046,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%AD%A6</t>
   </si>
   <si>
-    <t>宗教学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%93%B2%E5%AD%A6</t>
   </si>
   <si>
@@ -1091,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>無宗教</t>
+    <t>无宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%AE%97%E6%95%99</t>
@@ -1109,13 +1091,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95%E8%AB%B8%E6%95%99</t>
   </si>
   <si>
-    <t>亞伯拉罕諸教</t>
+    <t>亚伯拉罕诸教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E4%BF%9D%E5%AE%88%E6%B4%BE</t>
   </si>
   <si>
-    <t>猶太教保守派</t>
+    <t>犹太教保守派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Haymanot</t>
@@ -1133,13 +1115,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E6%AD%A3%E7%B5%B1%E6%B4%BE</t>
   </si>
   <si>
-    <t>猶太教正統派</t>
+    <t>犹太教正统派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E6%94%B9%E9%9D%A9%E6%B4%BE</t>
   </si>
   <si>
-    <t>猶太教改革派</t>
+    <t>犹太教改革派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%AC%E5%AE%97</t>
@@ -1175,15 +1157,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E6%AD%A3%E7%B5%B1%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>東方正統教會</t>
+    <t>东方正统教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E5%92%8C%E5%8D%8E%E8%A7%81%E8%AF%81%E4%BA%BA</t>
   </si>
   <si>
-    <t>耶和华见证人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E6%9C%9F%E5%9C%A3%E5%BE%92%E8%BF%90%E5%8A%A8</t>
   </si>
   <si>
@@ -1205,9 +1184,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%80%E5%8F%B6%E6%B4%BE</t>
   </si>
   <si>
-    <t>什叶派</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%B7%B4%E5%BE%B7%E6%B4%BE</t>
   </si>
   <si>
@@ -1229,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E7%8D%A8%E5%8F%A4%E8%98%AD%E7%B6%93</t>
   </si>
   <si>
-    <t>唯獨古蘭經</t>
+    <t>唯独古兰经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%AF%94%E6%95%99</t>
@@ -1259,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E9%81%94%E5%AE%89%E6%95%99</t>
   </si>
   <si>
-    <t>曼達安教</t>
+    <t>曼达安教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E5%A1%94%E6%B3%95%E9%87%8C%E8%BF%90%E5%8A%A8</t>
@@ -1271,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>撒馬利亞人</t>
+    <t>撒马利亚人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Indian_religions</t>
@@ -1301,19 +1277,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%85%8B%E9%81%94%E6%95%99</t>
   </si>
   <si>
-    <t>沙克達教</t>
+    <t>沙克达教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%95%E5%A9%86%E6%95%99</t>
   </si>
   <si>
-    <t>濕婆教</t>
+    <t>湿婆教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BA%9E%E7%93%A6%E8%8A%9D</t>
   </si>
   <si>
-    <t>阿亞瓦芝</t>
+    <t>阿亚瓦芝</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Smartism</t>
@@ -1355,9 +1331,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E5%85%8B%E6%95%99</t>
   </si>
   <si>
-    <t>锡克教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B9%E8%BF%AA</t>
   </si>
   <si>
@@ -1427,19 +1400,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%BE%B7%E9%AD%AF%E4%BC%8A%E4%BF%A1%E4%BB%B0</t>
   </si>
   <si>
-    <t>新德魯伊信仰</t>
+    <t>新德鲁伊信仰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E6%96%B0%E7%95%B0%E6%95%99%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>日耳曼新異教運動</t>
+    <t>日耳曼新异教运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%A4%9A%E7%A5%9E%E6%95%99_(%E5%BE%A9%E8%88%88)</t>
   </si>
   <si>
-    <t>希臘多神教 (復興)</t>
+    <t>希腊多神教 (复兴)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Italo-Roman_neopaganism</t>
@@ -1529,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%A7%98%E5%AF%86%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>中國秘密宗教</t>
+    <t>中国秘密宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%95%99</t>
@@ -1577,7 +1550,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%B7%AB%E6%95%99</t>
   </si>
   <si>
-    <t>朝鮮巫教</t>
+    <t>朝鲜巫教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%A5%BD%E6%95%99</t>
@@ -1613,7 +1586,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B7%B4%E6%95%99</t>
   </si>
   <si>
-    <t>東巴教</t>
+    <t>东巴教</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ua_Dab</t>
@@ -1973,25 +1946,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%80%9D%E6%83%B3%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>新思想運動</t>
+    <t>新思想运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%88%BE%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>雷爾運動</t>
+    <t>雷尔运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E9%81%94%E5%9F%BA</t>
   </si>
   <si>
-    <t>山達基</t>
+    <t>山达基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%8B%92%E7%91%AA</t>
   </si>
   <si>
-    <t>泰勒瑪</t>
+    <t>泰勒玛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%A5%9E%E6%99%AE%E6%95%91%E6%B4%BE</t>
@@ -2129,7 +2102,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%8B%89%E5%A4%AB%E7%A5%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>斯拉夫神話</t>
+    <t>斯拉夫神话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%9B%E6%95%99</t>
@@ -2177,7 +2150,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%87%B4%E5%B9%BB%E5%8A%91</t>
   </si>
   <si>
-    <t>宗教致幻劑</t>
+    <t>宗教致幻剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%B4%BE</t>
@@ -2249,7 +2222,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%B5%B1_(%E4%BF%A1%E4%BB%B0)</t>
   </si>
   <si>
-    <t>正統 (信仰)</t>
+    <t>正统 (信仰)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Orthopraxy</t>
@@ -2267,13 +2240,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E9%AB%94%E9%A9%97</t>
   </si>
   <si>
-    <t>宗教體驗</t>
+    <t>宗教体验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E6%8B%9C%E5%84%80%E5%BC%8F</t>
   </si>
   <si>
-    <t>禮拜儀式</t>
+    <t>礼拜仪式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%BA%E7%89%B2</t>
@@ -2285,9 +2258,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%B5%E6%80%A7</t>
   </si>
   <si>
-    <t>灵性</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Religious_symbolism</t>
   </si>
   <si>
@@ -2357,7 +2327,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>世俗主義</t>
+    <t>世俗主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9E%E8%A1%8C%E9%9D%A2%E6%9D%A1%E6%80%AA%E7%89%A9</t>
@@ -2381,7 +2351,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%84%A1%E7%A5%9E%E8%AB%96</t>
   </si>
   <si>
-    <t>新無神論</t>
+    <t>新无神论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%BA%E4%B8%96%E8%AE%BA</t>
@@ -2411,7 +2381,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>客觀主義</t>
+    <t>客观主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Secular_humanism</t>
@@ -2435,7 +2405,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%8F%E6%98%8E%E7%B2%89%E7%B4%85%E7%8D%A8%E8%A7%92%E7%8D%B8</t>
   </si>
   <si>
-    <t>透明粉紅獨角獸</t>
+    <t>透明粉红独角兽</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cognitive_science_of_religion</t>
@@ -2447,7 +2417,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%AF%94%E8%BC%83</t>
   </si>
   <si>
-    <t>宗教比較</t>
+    <t>宗教比较</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%8F%91%E5%B1%95</t>
@@ -2477,7 +2447,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教心理學</t>
+    <t>宗教心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -2489,9 +2459,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%A6</t>
   </si>
   <si>
-    <t>神学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Theories_of_religion</t>
   </si>
   <si>
@@ -2519,7 +2486,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%A6%8F%E9%9F%B3</t>
   </si>
   <si>
-    <t>傳福音</t>
+    <t>传福音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%95%99%E5%A3%AB</t>
@@ -2561,13 +2528,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%9C%E6%94%9D</t>
   </si>
   <si>
-    <t>綜攝</t>
+    <t>综摄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AC%E5%AE%B9</t>
   </si>
   <si>
-    <t>寬容</t>
+    <t>宽容</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%B8%96%E4%B8%BB%E4%B9%89</t>
@@ -2579,7 +2546,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%95%99%E6%97%A8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>原教旨主義</t>
+    <t>原教旨主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E4%B8%8E%E5%B9%B8%E7%A6%8F</t>
@@ -2591,7 +2558,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%88%87%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>宗教與同性戀</t>
+    <t>宗教与同性恋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Minority_religion</t>
@@ -2681,7 +2648,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%87%8D%E5%AE%97%E6%95%99%E8%BA%AB%E4%BB%BD%E8%AA%8D%E5%90%8C</t>
   </si>
   <si>
-    <t>多重宗教身份認同</t>
+    <t>多重宗教身份认同</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -2759,7 +2726,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%86%E4%B8%96</t>
   </si>
   <si>
-    <t>來世</t>
+    <t>来世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E8%A5%BF%E5%BC%97%E7%BD%97%E5%9B%B0%E5%A2%83</t>
@@ -2789,9 +2756,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%B5%E9%AD%82</t>
   </si>
   <si>
-    <t>灵魂</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E</t>
   </si>
   <si>
@@ -2819,7 +2783,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里斯多德</t>
+    <t>亚里斯多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5</t>
@@ -2843,13 +2807,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%B7%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>利己主義</t>
+    <t>利己主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9D%88</t>
   </si>
   <si>
-    <t>聖靈</t>
+    <t>圣灵</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Misotheism</t>
@@ -2861,7 +2825,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E8%87%AA%E7%84%B6%E7%A5%9E%E8%AB%96</t>
   </si>
   <si>
-    <t>泛自然神論</t>
+    <t>泛自然神论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Personal_god</t>
@@ -2903,7 +2867,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%96%AF%E5%8D%A1%E7%9A%84%E8%B3%AD%E6%B3%A8</t>
   </si>
   <si>
-    <t>帕斯卡的賭注</t>
+    <t>帕斯卡的赌注</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ultimate_Boeing_747_gambit</t>
@@ -2957,7 +2921,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E8%83%BD%E6%82%96%E8%AB%96</t>
   </si>
   <si>
-    <t>全能悖論</t>
+    <t>全能悖论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Omphalos_hypothesis</t>
@@ -2975,7 +2939,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%A0%E7%9A%84%E8%8C%B6%E5%A3%BA</t>
   </si>
   <si>
-    <t>羅素的茶壺</t>
+    <t>罗素的茶壶</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fate_of_the_unlearned</t>
@@ -2993,13 +2957,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E9%80%A0%E8%AB%96</t>
   </si>
   <si>
-    <t>創造論</t>
+    <t>创造论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95_(%E5%8D%B0%E5%BA%A6%E5%93%B2%E5%AD%B8)</t>
   </si>
   <si>
-    <t>法 (印度哲學)</t>
+    <t>法 (印度哲学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E6%95%99</t>
@@ -3017,7 +2981,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>婦女神學</t>
+    <t>妇女神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E4%B8%BB%E4%B9%89</t>
@@ -3101,7 +3065,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E7%9A%AE%E7%A7%91%C2%B7%E5%BE%B7%E6%8B%89%C2%B7%E7%B1%B3%E8%98%AD%E5%A4%9A%E6%8B%89</t>
   </si>
   <si>
-    <t>若望·皮科·德拉·米蘭多拉</t>
+    <t>若望·皮科·德拉·米兰多拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E6%96%AF%E8%B0%9F</t>
@@ -3143,13 +3107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%88%88%E7%89%B9%E5%BC%97%E9%87%8C%E5%BE%B7%C2%B7%E9%A6%AE%C2%B7%E8%B5%AB%E7%88%BE%E5%BE%B7</t>
   </si>
   <si>
-    <t>約翰·戈特弗里德·馮·赫爾德</t>
+    <t>约翰·戈特弗里德·冯·赫尔德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E6%96%BD%E8%90%8A%E7%88%BE%E9%A6%AC%E8%B5%AB</t>
   </si>
   <si>
-    <t>弗里德里希·施萊爾馬赫</t>
+    <t>弗里德里希·施莱尔马赫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%A5%A5%E5%B0%94%E6%A0%BC%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E9%BB%91%E6%A0%BC%E5%B0%94</t>
@@ -3161,7 +3125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%B6%AD%E8%B5%AB%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>威廉·維赫維爾</t>
+    <t>威廉·维赫维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%BB%B4%E5%B8%8C%C2%B7%E5%AE%89%E5%BE%B7%E5%88%97%E6%96%AF%C2%B7%E8%B4%B9%E5%B0%94%E5%B7%B4%E5%93%88</t>
@@ -3191,7 +3155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%87%91%E9%A0%93%C2%B7%E5%85%8B%E5%88%A9%E7%A6%8F%E5%BE%B7</t>
   </si>
   <si>
-    <t>威廉·金頓·克利福德</t>
+    <t>威廉·金顿·克利福德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E5%B0%BC%E9%87%87</t>
@@ -3221,9 +3185,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%89%B9%E5%85%B0%C2%B7%E7%BD%97%E7%B4%A0</t>
   </si>
   <si>
-    <t>伯特兰·罗素</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E5%B8%83%E4%BC%AF</t>
   </si>
   <si>
@@ -3233,7 +3194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E5%B7%B4%E7%89%B9</t>
   </si>
   <si>
-    <t>卡爾·巴特</t>
+    <t>卡尔·巴特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B1%B3%E5%B0%94%C2%B7%E5%B8%83%E9%B2%81%E5%86%85%E5%B0%94</t>
@@ -3257,15 +3218,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E4%B8%B9%E5%B0%BC%E7%89%B9</t>
   </si>
   <si>
-    <t>丹尼爾·丹尼特</t>
+    <t>丹尼尔·丹尼特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>无宗教</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Post-theism</t>
   </si>
   <si>
@@ -3317,7 +3275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%84%A1%E7%A5%9E%E8%AB%96%E8%80%85%E7%9A%84%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>對無神論者的歧視</t>
+    <t>对无神论者的歧视</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Implicit_and_explicit_atheism</t>
@@ -3395,7 +3353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E5%BD%A2%E7%B2%89%E7%B4%85%E7%8D%A8%E8%A7%92%E7%8D%B8</t>
   </si>
   <si>
-    <t>隱形粉紅獨角獸</t>
+    <t>隐形粉红独角兽</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nontheistic_religions</t>
@@ -3443,7 +3401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%B0%E7%9A%84%E7%B5%82%E7%B5%90%EF%BC%9A%E5%AE%97%E6%95%99%E3%80%81%E6%81%90%E6%80%96%E8%A1%8C%E5%8B%95%E5%8F%8A%E7%90%86%E6%80%A7%E7%9A%84%E6%9C%AA%E4%BE%86</t>
   </si>
   <si>
-    <t>信仰的終結：宗教、恐怖行動及理性的未來</t>
+    <t>信仰的终结：宗教、恐怖行动及理性的未来</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D%E9%94%99%E8%A7%89</t>
@@ -3467,7 +3425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>自然系統</t>
+    <t>自然系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E4%B8%BA%E4%BB%80%E4%B9%88%E4%B8%8D%E6%98%AF%E5%9F%BA%E7%9D%A3%E5%BE%92</t>
@@ -3545,9 +3503,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>世俗主义</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/La%C3%AFcit%C3%A9</t>
   </si>
   <si>
@@ -3557,7 +3512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -3575,7 +3530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -6243,7 +6198,7 @@
         <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="G80" t="n">
         <v>6</v>
@@ -6269,10 +6224,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -6298,10 +6253,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -6327,10 +6282,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -6356,10 +6311,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -6414,10 +6369,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -6443,10 +6398,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -6472,10 +6427,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>20</v>
@@ -6501,10 +6456,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>4</v>
@@ -6530,10 +6485,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -6559,10 +6514,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6588,10 +6543,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -6617,10 +6572,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -6646,10 +6601,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6675,10 +6630,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>9</v>
@@ -6704,10 +6659,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -6733,10 +6688,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6762,10 +6717,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6791,10 +6746,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6820,10 +6775,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -6849,10 +6804,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -6878,10 +6833,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6907,10 +6862,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6936,10 +6891,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -6965,10 +6920,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>8</v>
@@ -6994,10 +6949,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -7023,10 +6978,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -7052,10 +7007,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -7081,10 +7036,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -7110,10 +7065,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>13</v>
@@ -7139,10 +7094,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>5</v>
@@ -7168,10 +7123,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -7197,10 +7152,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -7226,10 +7181,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7255,10 +7210,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>5</v>
@@ -7284,10 +7239,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7313,10 +7268,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -7371,10 +7326,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7400,10 +7355,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7429,10 +7384,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -7458,10 +7413,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7487,10 +7442,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7516,10 +7471,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7545,10 +7500,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7574,10 +7529,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>19</v>
@@ -7603,10 +7558,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7632,10 +7587,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7661,10 +7616,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -7690,10 +7645,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="G130" t="n">
         <v>14</v>
@@ -7719,10 +7674,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7748,10 +7703,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7777,10 +7732,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7806,10 +7761,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="G134" t="n">
         <v>7</v>
@@ -7835,10 +7790,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -7864,10 +7819,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7893,10 +7848,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -7922,10 +7877,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>4</v>
@@ -7951,10 +7906,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>4</v>
@@ -7980,10 +7935,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -8009,10 +7964,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -8038,10 +7993,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -8067,10 +8022,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -8096,10 +8051,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="G144" t="n">
         <v>5</v>
@@ -8125,10 +8080,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -8154,10 +8109,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -8183,10 +8138,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -8212,10 +8167,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -8241,10 +8196,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8270,10 +8225,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8299,10 +8254,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G151" t="n">
         <v>7</v>
@@ -8328,10 +8283,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -8357,10 +8312,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -8386,10 +8341,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -8415,10 +8370,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
         <v>13</v>
@@ -8444,10 +8399,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -8473,10 +8428,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8502,10 +8457,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -8531,10 +8486,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
@@ -8560,10 +8515,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -8589,10 +8544,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -8618,10 +8573,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8647,10 +8602,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8676,10 +8631,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -8705,10 +8660,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -8734,10 +8689,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -8763,10 +8718,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8792,10 +8747,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G168" t="n">
         <v>4</v>
@@ -8821,10 +8776,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8850,10 +8805,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G170" t="n">
         <v>4</v>
@@ -8879,10 +8834,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G171" t="n">
         <v>5</v>
@@ -8908,10 +8863,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8937,10 +8892,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -8966,10 +8921,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -8995,10 +8950,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -9024,10 +8979,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -9053,10 +9008,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>62</v>
       </c>
       <c r="G177" t="n">
         <v>4</v>
@@ -9082,10 +9037,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9111,10 +9066,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>7</v>
@@ -9140,10 +9095,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -9169,10 +9124,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>5</v>
@@ -9198,10 +9153,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -9227,10 +9182,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>99</v>
@@ -9256,10 +9211,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9285,10 +9240,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -9314,10 +9269,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9343,10 +9298,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9372,10 +9327,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9401,10 +9356,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9430,10 +9385,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9459,10 +9414,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9488,10 +9443,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9517,10 +9472,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9546,10 +9501,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9575,10 +9530,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9604,10 +9559,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F196" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9633,10 +9588,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9662,10 +9617,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>315</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9691,10 +9646,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9720,10 +9675,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9749,10 +9704,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9778,10 +9733,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>281</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9807,10 +9762,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9836,10 +9791,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9865,10 +9820,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9894,10 +9849,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9923,10 +9878,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -9952,10 +9907,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9981,10 +9936,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -10010,10 +9965,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -10039,10 +9994,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -10068,10 +10023,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -10097,10 +10052,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -10126,10 +10081,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -10155,10 +10110,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -10184,10 +10139,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -10213,10 +10168,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -10242,10 +10197,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -10271,10 +10226,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10300,10 +10255,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10329,10 +10284,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10358,10 +10313,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -10387,10 +10342,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10416,10 +10371,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -10445,10 +10400,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10474,10 +10429,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10503,10 +10458,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>293</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -10532,10 +10487,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10561,10 +10516,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10590,10 +10545,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10619,10 +10574,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -10648,10 +10603,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10677,10 +10632,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10706,10 +10661,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10735,10 +10690,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10764,10 +10719,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10793,10 +10748,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10822,10 +10777,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10851,10 +10806,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10880,10 +10835,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -10909,10 +10864,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -10938,10 +10893,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10967,10 +10922,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10996,10 +10951,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -11025,10 +10980,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -11054,10 +11009,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -11083,10 +11038,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -11112,10 +11067,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -11141,10 +11096,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -11170,10 +11125,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11199,10 +11154,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11228,10 +11183,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -11257,10 +11212,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11286,10 +11241,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11315,10 +11270,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11344,10 +11299,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11373,10 +11328,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11402,10 +11357,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11431,10 +11386,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11460,10 +11415,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11489,10 +11444,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11518,10 +11473,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11547,10 +11502,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11576,10 +11531,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F264" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11605,10 +11560,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="F265" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11634,10 +11589,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F266" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11663,10 +11618,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F267" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11692,10 +11647,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="F268" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11721,10 +11676,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F269" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11750,10 +11705,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F270" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11779,10 +11734,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F271" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11808,10 +11763,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F272" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11837,10 +11792,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F273" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11866,10 +11821,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F274" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11895,10 +11850,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F275" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11924,10 +11879,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F276" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11953,10 +11908,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F277" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11982,10 +11937,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F278" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -12011,10 +11966,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F279" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -12040,10 +11995,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F280" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -12069,10 +12024,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F281" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -12098,10 +12053,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F282" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -12127,10 +12082,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F283" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -12156,10 +12111,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F284" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -12185,10 +12140,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F285" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -12214,10 +12169,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F286" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12243,10 +12198,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F287" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -12272,10 +12227,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F288" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12301,10 +12256,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F289" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12330,10 +12285,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F290" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12359,10 +12314,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F291" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12388,10 +12343,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F292" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12417,10 +12372,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F293" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12446,10 +12401,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F294" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12475,10 +12430,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F295" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12504,10 +12459,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F296" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12533,10 +12488,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F297" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12562,10 +12517,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F298" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12591,10 +12546,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F299" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12620,10 +12575,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F300" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12649,10 +12604,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F301" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12678,10 +12633,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F302" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12707,10 +12662,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F303" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12736,10 +12691,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F304" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G304" t="n">
         <v>3</v>
@@ -12765,10 +12720,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F305" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12794,10 +12749,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F306" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12823,10 +12778,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F307" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12852,10 +12807,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F308" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12881,10 +12836,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F309" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12910,10 +12865,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F310" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12939,10 +12894,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F311" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12968,10 +12923,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F312" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12997,10 +12952,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F313" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -13026,10 +12981,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F314" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -13055,10 +13010,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F315" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -13084,10 +13039,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F316" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13113,10 +13068,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F317" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -13142,10 +13097,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F318" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13171,10 +13126,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F319" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -13200,10 +13155,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F320" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -13229,10 +13184,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F321" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13258,10 +13213,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F322" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13287,10 +13242,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F323" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13316,10 +13271,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F324" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13345,10 +13300,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F325" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13374,10 +13329,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F326" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -13403,10 +13358,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F327" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13432,10 +13387,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F328" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13461,10 +13416,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F329" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -13490,10 +13445,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F330" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13519,10 +13474,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F331" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13548,10 +13503,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F332" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13577,10 +13532,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F333" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13606,10 +13561,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="F334" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13635,10 +13590,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F335" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13693,10 +13648,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F337" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13722,10 +13677,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="F338" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13751,10 +13706,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F339" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13780,10 +13735,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F340" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13809,10 +13764,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="F341" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13838,10 +13793,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F342" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13867,10 +13822,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="F343" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13896,10 +13851,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F344" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13925,10 +13880,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="F345" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13954,10 +13909,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F346" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13983,10 +13938,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="F347" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -14012,10 +13967,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="F348" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="G348" t="n">
         <v>3</v>
@@ -14041,10 +13996,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F349" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14070,10 +14025,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F350" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14099,10 +14054,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F351" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14128,10 +14083,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="F352" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14157,10 +14112,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="F353" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14186,10 +14141,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="F354" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14215,10 +14170,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="F355" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14244,10 +14199,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="F356" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="G356" t="n">
         <v>3</v>
@@ -14273,10 +14228,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="F357" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -14302,10 +14257,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F358" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14331,10 +14286,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F359" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14360,10 +14315,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F360" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14389,10 +14344,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F361" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="G361" t="n">
         <v>345</v>
@@ -14418,10 +14373,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="F362" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -14447,10 +14402,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="F363" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -14476,10 +14431,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="F364" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -14505,10 +14460,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F365" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14534,10 +14489,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F366" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14563,10 +14518,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="F367" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14592,10 +14547,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="F368" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="G368" t="n">
         <v>192</v>
@@ -14621,10 +14576,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F369" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14650,10 +14605,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F370" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -14679,10 +14634,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F371" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14708,10 +14663,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="F372" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14737,10 +14692,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F373" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="G373" t="n">
         <v>3</v>
@@ -14766,10 +14721,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="F374" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14795,10 +14750,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="F375" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14824,10 +14779,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="F376" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -14853,10 +14808,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="F377" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="G377" t="n">
         <v>3</v>
@@ -14882,10 +14837,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="F378" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14911,10 +14866,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="F379" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="G379" t="n">
         <v>2</v>
@@ -14940,10 +14895,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="F380" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14969,10 +14924,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="F381" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14998,10 +14953,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="F382" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -15027,10 +14982,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="F383" t="s">
-        <v>756</v>
+        <v>88</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -15056,10 +15011,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="F384" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15085,10 +15040,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="F385" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15114,10 +15069,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="F386" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -15143,10 +15098,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="F387" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="G387" t="n">
         <v>9</v>
@@ -15172,10 +15127,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="F388" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="G388" t="n">
         <v>8</v>
@@ -15230,10 +15185,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="F390" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="G390" t="n">
         <v>5</v>
@@ -15259,10 +15214,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="F391" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="G391" t="n">
         <v>3</v>
@@ -15288,10 +15243,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="F392" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15317,10 +15272,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="F393" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="G393" t="n">
         <v>6</v>
@@ -15346,10 +15301,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F394" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15375,10 +15330,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="F395" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -15404,10 +15359,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="F396" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15433,10 +15388,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="F397" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G397" t="n">
         <v>2</v>
@@ -15462,10 +15417,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="F398" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15491,10 +15446,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="F399" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15520,10 +15475,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F400" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15549,10 +15504,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="F401" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15578,10 +15533,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="F402" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15607,10 +15562,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="F403" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15636,10 +15591,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="F404" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -15665,10 +15620,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="F405" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15694,10 +15649,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="F406" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="G406" t="n">
         <v>3</v>
@@ -15723,10 +15678,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="F407" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15752,10 +15707,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F408" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="G408" t="n">
         <v>2</v>
@@ -15839,10 +15794,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="F411" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15897,10 +15852,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="F413" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15926,10 +15881,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="F414" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15955,10 +15910,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="F415" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="G415" t="n">
         <v>5</v>
@@ -15984,10 +15939,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="F416" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -16013,10 +15968,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="F417" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16042,10 +15997,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F418" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G418" t="n">
         <v>8</v>
@@ -16071,10 +16026,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="F419" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16100,10 +16055,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="F420" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -16129,10 +16084,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="F421" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="G421" t="n">
         <v>2</v>
@@ -16158,10 +16113,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="F422" t="s">
-        <v>824</v>
+        <v>64</v>
       </c>
       <c r="G422" t="n">
         <v>8</v>
@@ -16187,10 +16142,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="F423" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16216,10 +16171,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="F424" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16245,10 +16200,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="F425" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16274,10 +16229,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="F426" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16303,10 +16258,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="F427" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16332,10 +16287,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="F428" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16361,10 +16316,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="F429" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16390,10 +16345,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="F430" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16419,10 +16374,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="F431" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16448,10 +16403,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="F432" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="G432" t="n">
         <v>16</v>
@@ -16477,10 +16432,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="F433" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16506,10 +16461,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="F434" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16535,10 +16490,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="F435" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16564,10 +16519,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="F436" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16593,10 +16548,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="F437" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="G437" t="n">
         <v>2</v>
@@ -16622,10 +16577,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="F438" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -16651,10 +16606,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="F439" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16680,10 +16635,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="F440" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16709,10 +16664,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="F441" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16738,10 +16693,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="F442" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16767,10 +16722,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="F443" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16796,10 +16751,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="F444" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16825,10 +16780,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="F445" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16854,10 +16809,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="F446" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16883,10 +16838,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="F447" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16912,10 +16867,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="F448" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16941,10 +16896,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="F449" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16970,10 +16925,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="F450" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="G450" t="n">
         <v>2</v>
@@ -16999,10 +16954,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="F451" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17028,10 +16983,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="F452" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17057,10 +17012,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="F453" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17086,10 +17041,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="F454" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="G454" t="n">
         <v>2</v>
@@ -17115,10 +17070,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="F455" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17144,10 +17099,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="F456" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17173,10 +17128,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="F457" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17202,10 +17157,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="F458" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17231,10 +17186,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="F459" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17260,10 +17215,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="F460" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="G460" t="n">
         <v>2</v>
@@ -17289,10 +17244,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="F461" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17318,10 +17273,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="F462" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17347,10 +17302,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="F463" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17376,10 +17331,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="F464" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17405,10 +17360,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="F465" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17434,10 +17389,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="F466" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17463,10 +17418,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="F467" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="G467" t="n">
         <v>5</v>
@@ -17492,10 +17447,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="F468" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17521,10 +17476,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="F469" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17550,10 +17505,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="F470" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17579,10 +17534,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="F471" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17608,10 +17563,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="F472" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17637,10 +17592,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F473" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="G473" t="n">
         <v>12</v>
@@ -17666,10 +17621,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="F474" t="s">
-        <v>924</v>
+        <v>72</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17695,10 +17650,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="F475" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="G475" t="n">
         <v>6</v>
@@ -17724,10 +17679,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="F476" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17753,10 +17708,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="F477" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17782,10 +17737,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="F478" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17811,10 +17766,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="F479" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17840,10 +17795,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="F480" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="G480" t="n">
         <v>2</v>
@@ -17869,10 +17824,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="F481" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17898,10 +17853,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="F482" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17927,10 +17882,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="F483" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17956,10 +17911,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="F484" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17985,10 +17940,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="F485" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18014,10 +17969,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="F486" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18043,10 +17998,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="F487" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18072,10 +18027,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="F488" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18101,10 +18056,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="F489" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18130,10 +18085,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="F490" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18159,10 +18114,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="F491" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="G491" t="n">
         <v>2</v>
@@ -18188,10 +18143,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="F492" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18217,10 +18172,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="F493" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18246,10 +18201,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="F494" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18275,10 +18230,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="F495" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18304,10 +18259,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="F496" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18333,10 +18288,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="F497" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18362,10 +18317,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="F498" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18391,10 +18346,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="F499" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="G499" t="n">
         <v>2</v>
@@ -18420,10 +18375,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="F500" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18449,10 +18404,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="F501" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="G501" t="n">
         <v>2</v>
@@ -18478,10 +18433,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="F502" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18507,10 +18462,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="F503" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18536,10 +18491,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="F504" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18565,10 +18520,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="F505" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18594,10 +18549,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="F506" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="G506" t="n">
         <v>2</v>
@@ -18623,10 +18578,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="F507" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18681,10 +18636,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="F509" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18710,10 +18665,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F510" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18739,10 +18694,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="F511" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18768,10 +18723,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="F512" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18797,10 +18752,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="F513" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18826,10 +18781,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="F514" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18855,10 +18810,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="F515" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18913,10 +18868,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="F517" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="G517" t="n">
         <v>9</v>
@@ -18942,10 +18897,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="F518" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18971,10 +18926,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="F519" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -19000,10 +18955,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="F520" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="G520" t="n">
         <v>2</v>
@@ -19029,10 +18984,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="F521" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="G521" t="n">
         <v>2</v>
@@ -19058,10 +19013,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="F522" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19087,10 +19042,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="F523" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19116,10 +19071,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="F524" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19145,10 +19100,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="F525" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19174,10 +19129,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="F526" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19203,10 +19158,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="F527" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19232,10 +19187,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="F528" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19261,10 +19216,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="F529" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19290,10 +19245,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="F530" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19319,10 +19274,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="F531" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19348,10 +19303,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="F532" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19377,10 +19332,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="F533" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19406,10 +19361,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="F534" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19435,10 +19390,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="F535" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19464,10 +19419,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="F536" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19493,10 +19448,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="F537" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19522,10 +19477,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="F538" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19551,10 +19506,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="F539" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19580,10 +19535,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="F540" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19609,10 +19564,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="F541" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19638,10 +19593,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="F542" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19667,10 +19622,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="F543" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19696,10 +19651,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="F544" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19725,10 +19680,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="F545" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19754,10 +19709,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="F546" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="G546" t="n">
         <v>2</v>
@@ -19783,10 +19738,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="F547" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19812,10 +19767,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="F548" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19841,10 +19796,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="F549" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19870,10 +19825,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="F550" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19899,10 +19854,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="F551" t="s">
-        <v>1068</v>
+        <v>169</v>
       </c>
       <c r="G551" t="n">
         <v>3</v>
@@ -19928,10 +19883,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="F552" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19957,10 +19912,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
+        <v>188</v>
+      </c>
+      <c r="F553" t="s">
         <v>189</v>
-      </c>
-      <c r="F553" t="s">
-        <v>190</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19986,10 +19941,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="F554" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20015,10 +19970,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="F555" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20044,10 +19999,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="F556" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20073,10 +20028,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
       <c r="F557" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20102,10 +20057,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
+        <v>182</v>
+      </c>
+      <c r="F558" t="s">
         <v>183</v>
-      </c>
-      <c r="F558" t="s">
-        <v>184</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20131,10 +20086,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="F559" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20189,10 +20144,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F561" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20218,10 +20173,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F562" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G562" t="n">
         <v>2</v>
@@ -20247,10 +20202,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="F563" t="s">
-        <v>1082</v>
+        <v>352</v>
       </c>
       <c r="G563" t="n">
         <v>6</v>
@@ -20276,10 +20231,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="F564" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="G564" t="n">
         <v>2</v>
@@ -20305,10 +20260,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="F565" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="G565" t="n">
         <v>2</v>
@@ -20363,10 +20318,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="F567" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
       <c r="G567" t="n">
         <v>3</v>
@@ -20392,10 +20347,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
       <c r="F568" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="G568" t="n">
         <v>2</v>
@@ -20421,10 +20376,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
       <c r="F569" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20450,10 +20405,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="F570" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="G570" t="n">
         <v>4</v>
@@ -20479,10 +20434,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="F571" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20508,10 +20463,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F572" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20537,10 +20492,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
       <c r="F573" t="s">
-        <v>1098</v>
+        <v>1084</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20566,10 +20521,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="F574" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20595,10 +20550,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="F575" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20624,10 +20579,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="F576" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20653,10 +20608,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="F577" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20682,10 +20637,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
       <c r="F578" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20711,10 +20666,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="F579" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20740,10 +20695,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
       <c r="F580" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20769,10 +20724,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="F581" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="G581" t="n">
         <v>2</v>
@@ -20798,10 +20753,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F582" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20827,10 +20782,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F583" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20856,10 +20811,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
       <c r="F584" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20885,10 +20840,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
       <c r="F585" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20914,10 +20869,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
       <c r="F586" t="s">
-        <v>1120</v>
+        <v>1106</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20943,10 +20898,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="F587" t="s">
-        <v>1122</v>
+        <v>1108</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20972,10 +20927,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1123</v>
+        <v>1109</v>
       </c>
       <c r="F588" t="s">
-        <v>1124</v>
+        <v>1110</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21001,10 +20956,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1125</v>
+        <v>1111</v>
       </c>
       <c r="F589" t="s">
-        <v>1126</v>
+        <v>1112</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21030,10 +20985,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1127</v>
+        <v>1113</v>
       </c>
       <c r="F590" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21059,10 +21014,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1129</v>
+        <v>1115</v>
       </c>
       <c r="F591" t="s">
-        <v>1130</v>
+        <v>1116</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21088,10 +21043,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="F592" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21117,10 +21072,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1131</v>
+        <v>1117</v>
       </c>
       <c r="F593" t="s">
-        <v>1132</v>
+        <v>1118</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21146,10 +21101,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
       <c r="F594" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="G594" t="n">
         <v>5</v>
@@ -21175,10 +21130,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
       <c r="F595" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21204,10 +21159,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
       <c r="F596" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21233,10 +21188,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
       <c r="F597" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21262,10 +21217,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="F598" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21291,10 +21246,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="F599" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21320,10 +21275,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1143</v>
+        <v>1129</v>
       </c>
       <c r="F600" t="s">
-        <v>1144</v>
+        <v>1130</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21349,10 +21304,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
       <c r="F601" t="s">
-        <v>1146</v>
+        <v>1132</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21378,10 +21333,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
       <c r="F602" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21407,10 +21362,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1149</v>
+        <v>1135</v>
       </c>
       <c r="F603" t="s">
-        <v>1150</v>
+        <v>1136</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21436,10 +21391,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1151</v>
+        <v>1137</v>
       </c>
       <c r="F604" t="s">
-        <v>1152</v>
+        <v>1138</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21465,10 +21420,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
       <c r="F605" t="s">
-        <v>1154</v>
+        <v>1140</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21494,10 +21449,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1155</v>
+        <v>1141</v>
       </c>
       <c r="F606" t="s">
-        <v>1156</v>
+        <v>1142</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21523,10 +21478,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1157</v>
+        <v>1143</v>
       </c>
       <c r="F607" t="s">
-        <v>1158</v>
+        <v>1144</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21552,10 +21507,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1159</v>
+        <v>1145</v>
       </c>
       <c r="F608" t="s">
-        <v>1160</v>
+        <v>1146</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21581,10 +21536,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1161</v>
+        <v>1147</v>
       </c>
       <c r="F609" t="s">
-        <v>1162</v>
+        <v>1148</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21610,10 +21565,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1163</v>
+        <v>1149</v>
       </c>
       <c r="F610" t="s">
-        <v>1164</v>
+        <v>1150</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21639,10 +21594,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1165</v>
+        <v>1151</v>
       </c>
       <c r="F611" t="s">
-        <v>1166</v>
+        <v>1152</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21668,10 +21623,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1167</v>
+        <v>1153</v>
       </c>
       <c r="F612" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21697,10 +21652,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1169</v>
+        <v>1155</v>
       </c>
       <c r="F613" t="s">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21726,10 +21681,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1171</v>
+        <v>1157</v>
       </c>
       <c r="F614" t="s">
-        <v>1172</v>
+        <v>1158</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -21755,10 +21710,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="F615" t="s">
-        <v>1174</v>
+        <v>1160</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -21784,10 +21739,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="F616" t="s">
-        <v>1176</v>
+        <v>770</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -21813,10 +21768,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1177</v>
+        <v>1162</v>
       </c>
       <c r="F617" t="s">
-        <v>1178</v>
+        <v>1163</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -21842,10 +21797,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="F618" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -21871,10 +21826,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1179</v>
+        <v>1164</v>
       </c>
       <c r="F619" t="s">
-        <v>1180</v>
+        <v>1165</v>
       </c>
       <c r="G619" t="n">
         <v>3</v>
@@ -21900,10 +21855,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1181</v>
+        <v>1166</v>
       </c>
       <c r="F620" t="s">
-        <v>1182</v>
+        <v>1167</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -21929,10 +21884,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1183</v>
+        <v>1168</v>
       </c>
       <c r="F621" t="s">
-        <v>1184</v>
+        <v>1169</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -21958,10 +21913,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1185</v>
+        <v>1170</v>
       </c>
       <c r="F622" t="s">
-        <v>1186</v>
+        <v>1171</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -21987,10 +21942,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1187</v>
+        <v>1172</v>
       </c>
       <c r="F623" t="s">
-        <v>1188</v>
+        <v>1173</v>
       </c>
       <c r="G623" t="n">
         <v>2</v>
